--- a/REGULAR/OJT/AYCARDO, JOEL.xlsx
+++ b/REGULAR/OJT/AYCARDO, JOEL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8EA75F-D6E4-4ACF-9050-D5A1917EA7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2077AC66-2402-4DA0-88E6-A283C9208864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="128">
   <si>
     <t>PERIOD</t>
   </si>
@@ -370,9 +370,6 @@
     <t>VL(5-0-00)</t>
   </si>
   <si>
-    <t>FL(10-0-00)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -389,9 +386,6 @@
     <t>CL(5-0-00)</t>
   </si>
   <si>
-    <t>FL(15-0-00)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -405,9 +399,6 @@
     </r>
   </si>
   <si>
-    <t>UL(5-0-00)</t>
-  </si>
-  <si>
     <t>5/4-10/2018</t>
   </si>
   <si>
@@ -418,6 +409,36 @@
   </si>
   <si>
     <t>1/16-20/2023</t>
+  </si>
+  <si>
+    <t>REHABILATION 90 DAYS</t>
+  </si>
+  <si>
+    <t>7/8 - 10/9/2023</t>
+  </si>
+  <si>
+    <t>JULY 8 TO OCTOBER 9, 2023</t>
+  </si>
+  <si>
+    <t>TRAFFIC AIDE I</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>1 - Married (and not separated)</t>
+  </si>
+  <si>
+    <t>TOPS-CSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>FL(1-0-0)</t>
+  </si>
+  <si>
+    <t>FL(5-0-00)</t>
   </si>
 </sst>
 </file>
@@ -654,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -793,6 +814,12 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -828,9 +855,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2798,7 +2822,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2815,7 +2839,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K414" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K415" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -3193,11 +3217,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K414"/>
+  <dimension ref="A2:K415"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A366" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="H311" sqref="H311:K377"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3576" topLeftCell="A200"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="D322" sqref="D322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3219,61 +3244,72 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="58"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
+      <c r="B4" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
+      <c r="F5" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="H5" s="27" t="s">
         <v>18</v>
       </c>
@@ -3296,18 +3332,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3354,7 +3390,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>203.428</v>
+        <v>236.13600000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3364,7 +3400,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>402.5</v>
+        <v>416.20800000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3661,15 +3697,11 @@
       <c r="A24" s="40">
         <v>35096</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>46</v>
-      </c>
+      <c r="B24" s="20"/>
       <c r="C24" s="13">
         <v>1.25</v>
       </c>
-      <c r="D24" s="39">
-        <v>5</v>
-      </c>
+      <c r="D24" s="39"/>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
       <c r="G24" s="13">
@@ -3865,11 +3897,15 @@
       <c r="A34" s="40">
         <v>35400</v>
       </c>
-      <c r="B34" s="20"/>
+      <c r="B34" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C34" s="13">
         <v>1.25</v>
       </c>
-      <c r="D34" s="39"/>
+      <c r="D34" s="39">
+        <v>5</v>
+      </c>
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
       <c r="G34" s="13">
@@ -3923,15 +3959,11 @@
       <c r="A37" s="40">
         <v>35462</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>46</v>
-      </c>
+      <c r="B37" s="20"/>
       <c r="C37" s="13">
         <v>1.25</v>
       </c>
-      <c r="D37" s="39">
-        <v>5</v>
-      </c>
+      <c r="D37" s="39"/>
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
       <c r="G37" s="13">
@@ -4133,11 +4165,15 @@
       <c r="A47" s="40">
         <v>35765</v>
       </c>
-      <c r="B47" s="20"/>
+      <c r="B47" s="20" t="s">
+        <v>126</v>
+      </c>
       <c r="C47" s="13">
         <v>1.25</v>
       </c>
-      <c r="D47" s="39"/>
+      <c r="D47" s="39">
+        <v>1</v>
+      </c>
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
       <c r="G47" s="13">
@@ -9692,7 +9728,7 @@
       <c r="K315" s="20"/>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A316" s="60">
+      <c r="A316" s="48">
         <v>43221</v>
       </c>
       <c r="B316" s="15" t="s">
@@ -9714,7 +9750,7 @@
       <c r="I316" s="9"/>
       <c r="J316" s="12"/>
       <c r="K316" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.3">
@@ -9821,15 +9857,11 @@
       <c r="A322" s="40">
         <v>43435</v>
       </c>
-      <c r="B322" s="20" t="s">
-        <v>111</v>
-      </c>
+      <c r="B322" s="20"/>
       <c r="C322" s="41">
         <v>1.25</v>
       </c>
-      <c r="D322" s="39">
-        <v>10</v>
-      </c>
+      <c r="D322" s="39"/>
       <c r="E322" s="9"/>
       <c r="F322" s="20"/>
       <c r="G322" s="13">
@@ -9843,7 +9875,7 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B323" s="20"/>
       <c r="C323" s="13"/>
@@ -9946,7 +9978,7 @@
         <v>43586</v>
       </c>
       <c r="B328" s="20" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="C328" s="13">
         <v>1.25</v>
@@ -9964,7 +9996,7 @@
       <c r="I328" s="9"/>
       <c r="J328" s="11"/>
       <c r="K328" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.3">
@@ -10091,15 +10123,11 @@
       <c r="A335" s="40">
         <v>43800</v>
       </c>
-      <c r="B335" s="20" t="s">
-        <v>111</v>
-      </c>
+      <c r="B335" s="20"/>
       <c r="C335" s="13">
         <v>1.25</v>
       </c>
-      <c r="D335" s="39">
-        <v>10</v>
-      </c>
+      <c r="D335" s="39"/>
       <c r="E335" s="9"/>
       <c r="F335" s="20"/>
       <c r="G335" s="13">
@@ -10134,7 +10162,7 @@
         <v>43831</v>
       </c>
       <c r="B337" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C337" s="13">
         <v>1.25</v>
@@ -10154,7 +10182,7 @@
       <c r="I337" s="9"/>
       <c r="J337" s="11"/>
       <c r="K337" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.3">
@@ -10362,7 +10390,7 @@
         <v>44166</v>
       </c>
       <c r="B348" s="20" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C348" s="13">
         <v>1.25</v>
@@ -10383,7 +10411,7 @@
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B349" s="20"/>
       <c r="C349" s="13"/>
@@ -10606,7 +10634,7 @@
         <v>44501</v>
       </c>
       <c r="B360" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C360" s="13">
         <v>1.25</v>
@@ -10893,7 +10921,9 @@
       <c r="C374" s="13">
         <v>1.25</v>
       </c>
-      <c r="D374" s="39"/>
+      <c r="D374" s="39">
+        <v>5</v>
+      </c>
       <c r="E374" s="9"/>
       <c r="F374" s="20"/>
       <c r="G374" s="13">
@@ -10925,7 +10955,7 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B376" s="20" t="s">
         <v>110</v>
@@ -10946,12 +10976,12 @@
       <c r="I376" s="9"/>
       <c r="J376" s="11"/>
       <c r="K376" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
-        <v>44927</v>
+        <v>44985</v>
       </c>
       <c r="B377" s="20"/>
       <c r="C377" s="13">
@@ -10971,7 +11001,7 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
-        <v>44958</v>
+        <v>45016</v>
       </c>
       <c r="B378" s="20"/>
       <c r="C378" s="13">
@@ -10991,16 +11021,18 @@
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
-        <v>44986</v>
+        <v>45046</v>
       </c>
       <c r="B379" s="20"/>
-      <c r="C379" s="13"/>
+      <c r="C379" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D379" s="39"/>
       <c r="E379" s="9"/>
       <c r="F379" s="20"/>
-      <c r="G379" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G379" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H379" s="39"/>
       <c r="I379" s="9"/>
@@ -11009,16 +11041,18 @@
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
-        <v>45017</v>
+        <v>45077</v>
       </c>
       <c r="B380" s="20"/>
-      <c r="C380" s="13"/>
+      <c r="C380" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D380" s="39"/>
       <c r="E380" s="9"/>
       <c r="F380" s="20"/>
-      <c r="G380" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G380" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H380" s="39"/>
       <c r="I380" s="9"/>
@@ -11027,16 +11061,18 @@
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
-        <v>45047</v>
+        <v>45107</v>
       </c>
       <c r="B381" s="20"/>
-      <c r="C381" s="13"/>
+      <c r="C381" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D381" s="39"/>
       <c r="E381" s="9"/>
       <c r="F381" s="20"/>
-      <c r="G381" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G381" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H381" s="39"/>
       <c r="I381" s="9"/>
@@ -11045,16 +11081,18 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
-        <v>45078</v>
+        <v>45138</v>
       </c>
       <c r="B382" s="20"/>
-      <c r="C382" s="13"/>
+      <c r="C382" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D382" s="39"/>
       <c r="E382" s="9"/>
       <c r="F382" s="20"/>
-      <c r="G382" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G382" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H382" s="39"/>
       <c r="I382" s="9"/>
@@ -11063,27 +11101,33 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B383" s="20"/>
-      <c r="C383" s="13"/>
+        <v>45114</v>
+      </c>
+      <c r="B383" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C383" s="13">
+        <v>0.33299999999999974</v>
+      </c>
       <c r="D383" s="39"/>
       <c r="E383" s="9"/>
       <c r="F383" s="20"/>
-      <c r="G383" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G383" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>0.33299999999999974</v>
       </c>
       <c r="H383" s="39"/>
       <c r="I383" s="9"/>
       <c r="J383" s="11"/>
-      <c r="K383" s="20"/>
+      <c r="K383" s="20" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A384" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B384" s="20"/>
+      <c r="A384" s="40"/>
+      <c r="B384" s="49" t="s">
+        <v>120</v>
+      </c>
       <c r="C384" s="13"/>
       <c r="D384" s="39"/>
       <c r="E384" s="9"/>
@@ -11099,16 +11143,18 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
-        <v>45170</v>
+        <v>45208</v>
       </c>
       <c r="B385" s="20"/>
-      <c r="C385" s="13"/>
+      <c r="C385" s="13">
+        <v>0.875</v>
+      </c>
       <c r="D385" s="39"/>
       <c r="E385" s="9"/>
       <c r="F385" s="20"/>
-      <c r="G385" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G385" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>0.875</v>
       </c>
       <c r="H385" s="39"/>
       <c r="I385" s="9"/>
@@ -11117,16 +11163,18 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
-        <v>45200</v>
+        <v>45260</v>
       </c>
       <c r="B386" s="20"/>
-      <c r="C386" s="13"/>
+      <c r="C386" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D386" s="39"/>
       <c r="E386" s="9"/>
       <c r="F386" s="20"/>
-      <c r="G386" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G386" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H386" s="39"/>
       <c r="I386" s="9"/>
@@ -11135,16 +11183,18 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
-        <v>45231</v>
+        <v>45291</v>
       </c>
       <c r="B387" s="20"/>
-      <c r="C387" s="13"/>
+      <c r="C387" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D387" s="39"/>
       <c r="E387" s="9"/>
       <c r="F387" s="20"/>
-      <c r="G387" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G387" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H387" s="39"/>
       <c r="I387" s="9"/>
@@ -11153,16 +11203,18 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
-        <v>45261</v>
+        <v>45322</v>
       </c>
       <c r="B388" s="20"/>
-      <c r="C388" s="13"/>
+      <c r="C388" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D388" s="39"/>
       <c r="E388" s="9"/>
       <c r="F388" s="20"/>
-      <c r="G388" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G388" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H388" s="39"/>
       <c r="I388" s="9"/>
@@ -11171,16 +11223,18 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
-        <v>45292</v>
+        <v>45351</v>
       </c>
       <c r="B389" s="20"/>
-      <c r="C389" s="13"/>
+      <c r="C389" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D389" s="39"/>
       <c r="E389" s="9"/>
       <c r="F389" s="20"/>
-      <c r="G389" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G389" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H389" s="39"/>
       <c r="I389" s="9"/>
@@ -11189,16 +11243,18 @@
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
-        <v>45323</v>
+        <v>45382</v>
       </c>
       <c r="B390" s="20"/>
-      <c r="C390" s="13"/>
+      <c r="C390" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D390" s="39"/>
       <c r="E390" s="9"/>
       <c r="F390" s="20"/>
-      <c r="G390" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G390" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H390" s="39"/>
       <c r="I390" s="9"/>
@@ -11207,16 +11263,18 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
-        <v>45352</v>
+        <v>45412</v>
       </c>
       <c r="B391" s="20"/>
-      <c r="C391" s="13"/>
+      <c r="C391" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D391" s="39"/>
       <c r="E391" s="9"/>
       <c r="F391" s="20"/>
-      <c r="G391" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G391" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H391" s="39"/>
       <c r="I391" s="9"/>
@@ -11224,9 +11282,7 @@
       <c r="K391" s="20"/>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A392" s="40">
-        <v>45383</v>
-      </c>
+      <c r="A392" s="40"/>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
       <c r="D392" s="39"/>
@@ -11242,9 +11298,7 @@
       <c r="K392" s="20"/>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A393" s="40">
-        <v>45413</v>
-      </c>
+      <c r="A393" s="40"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
       <c r="D393" s="39"/>
@@ -11260,9 +11314,7 @@
       <c r="K393" s="20"/>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A394" s="40">
-        <v>45444</v>
-      </c>
+      <c r="A394" s="40"/>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
       <c r="D394" s="39"/>
@@ -11278,9 +11330,7 @@
       <c r="K394" s="20"/>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A395" s="40">
-        <v>45474</v>
-      </c>
+      <c r="A395" s="40"/>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
       <c r="D395" s="39"/>
@@ -11296,9 +11346,7 @@
       <c r="K395" s="20"/>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A396" s="40">
-        <v>45505</v>
-      </c>
+      <c r="A396" s="40"/>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
       <c r="D396" s="39"/>
@@ -11314,9 +11362,7 @@
       <c r="K396" s="20"/>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A397" s="40">
-        <v>45536</v>
-      </c>
+      <c r="A397" s="40"/>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
       <c r="D397" s="39"/>
@@ -11332,9 +11378,7 @@
       <c r="K397" s="20"/>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A398" s="40">
-        <v>45566</v>
-      </c>
+      <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
       <c r="D398" s="39"/>
@@ -11350,9 +11394,7 @@
       <c r="K398" s="20"/>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A399" s="40">
-        <v>45597</v>
-      </c>
+      <c r="A399" s="40"/>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
       <c r="D399" s="39"/>
@@ -11368,9 +11410,7 @@
       <c r="K399" s="20"/>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A400" s="40">
-        <v>45627</v>
-      </c>
+      <c r="A400" s="40"/>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
       <c r="D400" s="39"/>
@@ -11386,9 +11426,7 @@
       <c r="K400" s="20"/>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A401" s="40">
-        <v>45658</v>
-      </c>
+      <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
       <c r="D401" s="39"/>
@@ -11404,9 +11442,7 @@
       <c r="K401" s="20"/>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A402" s="40">
-        <v>45689</v>
-      </c>
+      <c r="A402" s="40"/>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
       <c r="D402" s="39"/>
@@ -11422,9 +11458,7 @@
       <c r="K402" s="20"/>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A403" s="40">
-        <v>45717</v>
-      </c>
+      <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
       <c r="D403" s="39"/>
@@ -11440,9 +11474,7 @@
       <c r="K403" s="20"/>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A404" s="40">
-        <v>45748</v>
-      </c>
+      <c r="A404" s="40"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
       <c r="D404" s="39"/>
@@ -11458,9 +11490,7 @@
       <c r="K404" s="20"/>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A405" s="40">
-        <v>45778</v>
-      </c>
+      <c r="A405" s="40"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
       <c r="D405" s="39"/>
@@ -11604,20 +11634,36 @@
       <c r="K413" s="20"/>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A414" s="60"/>
-      <c r="B414" s="15"/>
-      <c r="C414" s="41"/>
-      <c r="D414" s="42"/>
+      <c r="A414" s="40"/>
+      <c r="B414" s="20"/>
+      <c r="C414" s="13"/>
+      <c r="D414" s="39"/>
       <c r="E414" s="9"/>
-      <c r="F414" s="15"/>
-      <c r="G414" s="41" t="str">
+      <c r="F414" s="20"/>
+      <c r="G414" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H414" s="42"/>
+      <c r="H414" s="39"/>
       <c r="I414" s="9"/>
-      <c r="J414" s="12"/>
-      <c r="K414" s="15"/>
+      <c r="J414" s="11"/>
+      <c r="K414" s="20"/>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A415" s="48"/>
+      <c r="B415" s="15"/>
+      <c r="C415" s="41"/>
+      <c r="D415" s="42"/>
+      <c r="E415" s="9"/>
+      <c r="F415" s="15"/>
+      <c r="G415" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H415" s="42"/>
+      <c r="I415" s="9"/>
+      <c r="J415" s="12"/>
+      <c r="K415" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11664,8 +11710,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11683,17 +11729,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -11739,22 +11785,22 @@
         <v>0.75800000000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K3" s="35">
         <f>J4-1</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L3" s="44">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
-        <v>0.625</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -11774,12 +11820,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/REGULAR/OJT/AYCARDO, JOEL.xlsx
+++ b/REGULAR/OJT/AYCARDO, JOEL.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="135">
   <si>
     <t>PERIOD</t>
   </si>
@@ -453,6 +453,12 @@
   </si>
   <si>
     <t>12/1,4-7,11-15-18-22,26-29/2023</t>
+  </si>
+  <si>
+    <t>SL(21-0-0)</t>
+  </si>
+  <si>
+    <t>1/2-31/2024</t>
   </si>
 </sst>
 </file>
@@ -1318,7 +1324,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1361,7 +1367,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1425,7 +1431,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1485,7 +1491,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1551,7 +1557,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1620,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1712,7 +1718,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1771,7 +1777,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1836,7 +1842,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,7 +1885,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1954,7 +1960,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2140,7 +2146,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2206,7 +2212,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2264,7 +2270,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2330,7 +2336,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2386,7 +2392,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2461,7 +2467,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2504,7 +2510,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2570,7 +2576,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2626,7 +2632,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2724,7 +2730,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2787,7 +2793,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3236,7 +3242,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A368" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K387" sqref="K387"/>
+      <selection pane="bottomLeft" activeCell="K389" sqref="K389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3404,7 +3410,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>229.88600000000002</v>
+        <v>231.13600000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3414,7 +3420,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>366.95800000000003</v>
+        <v>347.20800000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11208,13 +11214,15 @@
       <c r="B387" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C387" s="13"/>
+      <c r="C387" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D387" s="39"/>
       <c r="E387" s="9"/>
       <c r="F387" s="20"/>
-      <c r="G387" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G387" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H387" s="39">
         <v>19</v>
@@ -11247,7 +11255,9 @@
       <c r="A389" s="40">
         <v>45322</v>
       </c>
-      <c r="B389" s="20"/>
+      <c r="B389" s="20" t="s">
+        <v>133</v>
+      </c>
       <c r="C389" s="13"/>
       <c r="D389" s="39"/>
       <c r="E389" s="9"/>
@@ -11256,10 +11266,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H389" s="39"/>
+      <c r="H389" s="39">
+        <v>21</v>
+      </c>
       <c r="I389" s="9"/>
       <c r="J389" s="11"/>
-      <c r="K389" s="20"/>
+      <c r="K389" s="20" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
